--- a/data/forecast_report.xlsx
+++ b/data/forecast_report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stat\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljyjj\Documents\GitHub\forecast\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412509DD-F88E-4446-BB1D-D91A2918625B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12528"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -536,6 +537,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -552,6 +554,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -568,6 +571,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -685,9 +689,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -700,11 +704,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="54"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -809,10 +815,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1094,20 +1100,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.3984375" customWidth="1"/>
-    <col min="3" max="3" width="20.296875" customWidth="1"/>
+    <col min="2" max="2" width="21.4140625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="31.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>159</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1140,7 +1146,7 @@
         <v>33938.400000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1151,7 +1157,7 @@
         <v>33681.699999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1162,7 +1168,7 @@
         <v>34259.800000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1173,7 +1179,7 @@
         <v>38083.800000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>36814.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>36851</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1206,7 +1212,7 @@
         <v>37559.599999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1217,7 +1223,7 @@
         <v>41692.6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>39735</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1239,7 +1245,7 @@
         <v>39815.800000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1250,7 +1256,7 @@
         <v>40820.800000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>44328.3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1272,7 +1278,7 @@
         <v>42258.9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1283,7 +1289,7 @@
         <v>42763.8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>43786.400000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1305,7 +1311,7 @@
         <v>47922</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>45987.1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1327,7 +1333,7 @@
         <v>46774</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1338,7 +1344,7 @@
         <v>47897.1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1349,7 +1355,7 @@
         <v>52578.2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1360,7 +1366,7 @@
         <v>50179.7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1371,7 +1377,7 @@
         <v>51223.7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1382,7 +1388,7 @@
         <v>51593.9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1393,7 +1399,7 @@
         <v>56841.599999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1404,7 +1410,7 @@
         <v>54892.3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1415,7 +1421,7 @@
         <v>55794.7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -1426,7 +1432,7 @@
         <v>56683</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -1437,7 +1443,7 @@
         <v>62155.7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -1448,7 +1454,7 @@
         <v>61185.3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -1459,7 +1465,7 @@
         <v>61898.2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>62571</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -1481,7 +1487,7 @@
         <v>68698.5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -1492,7 +1498,7 @@
         <v>67957.8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -1503,7 +1509,7 @@
         <v>68355.199999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -1514,7 +1520,7 @@
         <v>68610.8</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -1525,7 +1531,7 @@
         <v>75000.3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -1536,7 +1542,7 @@
         <v>74121.899999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -1547,7 +1553,7 @@
         <v>74321.3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -1558,7 +1564,7 @@
         <v>75117.2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -1569,7 +1575,7 @@
         <v>81719.100000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -1580,7 +1586,7 @@
         <v>81089</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -1591,7 +1597,7 @@
         <v>80056.399999999994</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>79178.8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -1613,7 +1619,7 @@
         <v>86236.1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>87239.9</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -1635,7 +1641,7 @@
         <v>84909.7</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -1646,7 +1652,7 @@
         <v>84716.1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -1657,7 +1663,7 @@
         <v>92382.7</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -1668,7 +1674,7 @@
         <v>95058.1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -1679,7 +1685,7 @@
         <v>92412.4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -1690,7 +1696,7 @@
         <v>92553.7</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>101370.2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>105104.3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -1723,7 +1729,7 @@
         <v>102560.7</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -1734,7 +1740,7 @@
         <v>103064.2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -1745,7 +1751,7 @@
         <v>111567.7</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -1756,7 +1762,7 @@
         <v>114000.5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>110633.5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -1778,7 +1784,7 @@
         <v>110325.6</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -1789,7 +1795,7 @@
         <v>120038.39999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>119698.6</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>115951</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -1822,7 +1828,7 @@
         <v>117335.2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -1833,7 +1839,7 @@
         <v>121222</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -1844,7 +1850,7 @@
         <v>105083.2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -1855,7 +1861,7 @@
         <v>99977.3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -1866,7 +1872,7 @@
         <v>103112.2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -1877,7 +1883,7 @@
         <v>109497.9</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -1888,7 +1894,7 @@
         <v>113804.7</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>111499.7</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -1910,7 +1916,7 @@
         <v>117174.7</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -1921,7 +1927,7 @@
         <v>125509.5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -1932,7 +1938,7 @@
         <v>128813.5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -1943,7 +1949,7 @@
         <v>124555.5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -1954,7 +1960,7 @@
         <v>126398.2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -1965,7 +1971,7 @@
         <v>131839.4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -1976,7 +1982,7 @@
         <v>132528.29999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -1987,7 +1993,7 @@
         <v>131537</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -1998,7 +2004,7 @@
         <v>134384.5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -2009,7 +2015,7 @@
         <v>142794.29999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>147309.29999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -2031,7 +2037,7 @@
         <v>144607.29999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -2042,7 +2048,7 @@
         <v>146327.1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>151589.29999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -2064,7 +2070,7 @@
         <v>149370</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -2075,7 +2081,7 @@
         <v>143647.9</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -2086,7 +2092,7 @@
         <v>144655.1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -2097,7 +2103,7 @@
         <v>149927.4</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -2108,7 +2114,7 @@
         <v>148342.20000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -2119,7 +2125,7 @@
         <v>144588.4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -2130,7 +2136,7 @@
         <v>145000.5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -2141,7 +2147,7 @@
         <v>152016.20000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>151767</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -2163,7 +2169,7 @@
         <v>151482.1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -2174,7 +2180,7 @@
         <v>153422.1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -2185,7 +2191,7 @@
         <v>160745.5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -2196,7 +2202,7 @@
         <v>160479.6</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -2207,7 +2213,7 @@
         <v>158650.20000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -2218,7 +2224,7 @@
         <v>160353.20000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -2229,7 +2235,7 @@
         <v>168321.2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -2240,7 +2246,7 @@
         <v>168685.7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -2251,7 +2257,7 @@
         <v>167342.39999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -2262,7 +2268,7 @@
         <v>169466.1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>176538.2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -2284,7 +2290,7 @@
         <v>176941.4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -2295,7 +2301,7 @@
         <v>172167</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -2306,7 +2312,7 @@
         <v>172789.9</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -2317,7 +2323,7 @@
         <v>171205</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -2328,7 +2334,7 @@
         <v>169626.2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -2339,7 +2345,7 @@
         <v>170815.3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -2350,7 +2356,7 @@
         <v>173945.8</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
@@ -2361,7 +2367,7 @@
         <v>180227.8</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -2372,7 +2378,7 @@
         <v>180935.5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -2383,7 +2389,7 @@
         <v>177018.6</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -2394,7 +2400,7 @@
         <v>180649.9</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v>186514.5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -2416,7 +2422,7 @@
         <v>187921.3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -2427,7 +2433,7 @@
         <v>183227.7</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
@@ -2438,7 +2444,7 @@
         <v>185331.3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -2449,7 +2455,7 @@
         <v>190010.4</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>190394.7</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>184410.3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -2482,7 +2488,7 @@
         <v>189539.3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -2493,7 +2499,7 @@
         <v>194495.1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -2504,7 +2510,7 @@
         <v>192822.2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -2515,7 +2521,7 @@
         <v>187576.8</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -2526,7 +2532,7 @@
         <v>192855.2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -2537,7 +2543,7 @@
         <v>198759.5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -2548,7 +2554,7 @@
         <v>198603.5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -2559,7 +2565,7 @@
         <v>191071.7</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -2570,7 +2576,7 @@
         <v>196261.8</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -2581,7 +2587,7 @@
         <v>201472.6</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>201742.9</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -2603,7 +2609,7 @@
         <v>194514.9</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -2614,7 +2620,7 @@
         <v>200252.1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -2625,7 +2631,7 @@
         <v>208302.4</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>206733.2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
@@ -2647,7 +2653,7 @@
         <v>200862.7</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -2658,7 +2664,7 @@
         <v>206719.3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -2669,7 +2675,7 @@
         <v>211361</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -2680,7 +2686,7 @@
         <v>211037.3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -2691,7 +2697,7 @@
         <v>206191.8</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
@@ -2702,7 +2708,7 @@
         <v>213014.1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
@@ -2713,7 +2719,7 @@
         <v>218346</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -2724,7 +2730,7 @@
         <v>219621.4</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -2735,7 +2741,7 @@
         <v>212894.3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -2746,7 +2752,7 @@
         <v>218810.1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -2757,7 +2763,7 @@
         <v>224252.1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -2768,7 +2774,7 @@
         <v>222635.4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
@@ -2779,7 +2785,7 @@
         <v>216718.5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
@@ -2790,7 +2796,7 @@
         <v>222306.9</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -2801,7 +2807,7 @@
         <v>228506.9</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
@@ -2812,7 +2818,7 @@
         <v>211991.9</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
@@ -2823,7 +2829,7 @@
         <v>208083.8</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -2834,7 +2840,7 @@
         <v>212607.8</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -2845,7 +2851,7 @@
         <v>213628.4</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
@@ -2864,12 +2870,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
